--- a/src/main/java/com/book/testdata/BookTestData.xlsx
+++ b/src/main/java/com/book/testdata/BookTestData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prathamkumar/eclipse-workspace/HybridTestNGFramework/src/main/java/com/testNg/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prathamkumar/eclipse-workspace/WardrobesHackathon/src/main/java/com/book/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56EE85C-0A04-8946-A1D5-2C0694854B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B6839F-6221-1045-8CAC-709E873323FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14120" xr2:uid="{82F9A47B-6131-454D-860C-EB3A801A0E09}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14120" xr2:uid="{82F9A47B-6131-454D-860C-EB3A801A0E09}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="giftcard" sheetId="1" r:id="rId1"/>
+    <sheet name="extras" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,18 +35,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>prathamkumar1985@gmail.com</t>
-  </si>
-  <si>
-    <t>Saitama@143</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+  <si>
+    <t>RecipientEmail</t>
+  </si>
+  <si>
+    <t>RecipientName</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>john.doe@example.com</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>jane.smith@example.com</t>
+  </si>
+  <si>
+    <t>123 Main St</t>
+  </si>
+  <si>
+    <t>123ghs</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>This is a test message.</t>
+  </si>
+  <si>
+    <t>RecipeintMob</t>
+  </si>
+  <si>
+    <t>SenderName</t>
+  </si>
+  <si>
+    <t>SendarEmail</t>
+  </si>
+  <si>
+    <t>SendarMob</t>
+  </si>
+  <si>
+    <t>SenderAddress</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>98373778fd</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>6thCross</t>
+  </si>
+  <si>
+    <t>TestMessage</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
   </si>
 </sst>
 </file>
@@ -55,13 +116,6 @@
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -85,6 +139,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,15 +177,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -439,69 +514,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153E3D22-FBE0-BF47-BCA5-51214E7DFAC0}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="5"/>
+    <col min="10" max="10" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>9876543210</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3">
+        <v>56045</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>560045</v>
+      </c>
+      <c r="B3" s="5">
+        <v>8985425562</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{C4A4BFC6-8C90-7846-BC69-DD8CBDC12C1A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F30698-25DC-C949-8F38-D2E0F1FA3C35}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
+      <c r="C2" s="3">
+        <v>1234567890</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>9876543210</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B14ED181-FB75-6B47-9D45-A28DCE7EC301}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{E2F22834-5204-F646-BD65-AEA2009608CD}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{C566F5DB-3B76-E048-8404-8089CA09C68F}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{17F575B3-440C-104E-8D14-38F085C9C0AA}"/>
-    <hyperlink ref="A4" r:id="rId5" xr:uid="{AA31098E-357D-8944-AEF3-57F5023F6B6C}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{90CD98BC-86AA-604F-B52E-76390154AA1D}"/>
-    <hyperlink ref="A5" r:id="rId7" xr:uid="{E6FBFC67-C377-1B4E-B865-0D8CABC495E6}"/>
-    <hyperlink ref="B5" r:id="rId8" xr:uid="{DA536B56-D2A5-2A41-8D97-C99BCBA18CBC}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{34958251-8F44-4A4C-A293-205089BD6CA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
